--- a/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38381</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28468</v>
+        <v>28577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51119</v>
+        <v>50646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2000835231886346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1484052152054123</v>
+        <v>0.1489751839302853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2664870722467139</v>
+        <v>0.264016695737649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -765,19 +765,19 @@
         <v>63432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50173</v>
+        <v>51730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75745</v>
+        <v>76862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3342494890876911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2643864120457099</v>
+        <v>0.2725884885557342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3991329986505545</v>
+        <v>0.4050225002180087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -786,19 +786,19 @@
         <v>101813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85690</v>
+        <v>85358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119725</v>
+        <v>118383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2668053389637176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2245532140753625</v>
+        <v>0.2236856592878262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3137448940173755</v>
+        <v>0.3102271177043158</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>153446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140708</v>
+        <v>141181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163359</v>
+        <v>163250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7999164768113654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7335129277532858</v>
+        <v>0.7359833042623507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8515947847945876</v>
+        <v>0.8510248160697144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -836,19 +836,19 @@
         <v>126341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114028</v>
+        <v>112911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139600</v>
+        <v>138043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6657505109123089</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6008670013494458</v>
+        <v>0.5949774997819911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7356135879542902</v>
+        <v>0.7274115114442659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>290</v>
@@ -857,19 +857,19 @@
         <v>279787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>261875</v>
+        <v>263217</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>295910</v>
+        <v>296242</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7331946610362824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6862551059826244</v>
+        <v>0.6897728822956841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7754467859246373</v>
+        <v>0.7763143407121734</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>179498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>160257</v>
+        <v>161215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196058</v>
+        <v>196290</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5838029974579095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5212245372731282</v>
+        <v>0.5243380211740625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.637662365922928</v>
+        <v>0.6384167462033024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -982,19 +982,19 @@
         <v>312086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295065</v>
+        <v>295825</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>329840</v>
+        <v>329844</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7654195053671676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7236726852265684</v>
+        <v>0.7255384510731401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8089627752683541</v>
+        <v>0.8089733818333114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>465</v>
@@ -1003,19 +1003,19 @@
         <v>491584</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>468000</v>
+        <v>466126</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>518063</v>
+        <v>516488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6873423082515213</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6543664884073886</v>
+        <v>0.6517466357637747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7243666833726752</v>
+        <v>0.7221642036713439</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>127965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111405</v>
+        <v>111173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>147206</v>
+        <v>146248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4161970025420904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.362337634077072</v>
+        <v>0.3615832537966978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4787754627268718</v>
+        <v>0.4756619788259379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -1053,19 +1053,19 @@
         <v>95646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77892</v>
+        <v>77888</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>112667</v>
+        <v>111907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2345804946328323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1910372247316455</v>
+        <v>0.1910266181666884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2763273147734316</v>
+        <v>0.2744615489268599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>215</v>
@@ -1074,19 +1074,19 @@
         <v>223611</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>197132</v>
+        <v>198707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>247195</v>
+        <v>249069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3126576917484786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2756333166273248</v>
+        <v>0.2778357963286557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.345633511592611</v>
+        <v>0.348253364236225</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>307568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>284535</v>
+        <v>285162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>331862</v>
+        <v>328638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6026862201428101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.557551676398308</v>
+        <v>0.5587811781116535</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.650289959182954</v>
+        <v>0.6439730040834086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>389</v>
@@ -1199,19 +1199,19 @@
         <v>408555</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>387333</v>
+        <v>385248</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>431006</v>
+        <v>430622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6930621574002402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6570631274860212</v>
+        <v>0.6535261276670935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7311484834581772</v>
+        <v>0.7304964126790036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>685</v>
@@ -1220,19 +1220,19 @@
         <v>716123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>684814</v>
+        <v>681781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>747274</v>
+        <v>746458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6511267266793455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6226593078133074</v>
+        <v>0.619900873271454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6794498654696784</v>
+        <v>0.6787080328570818</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>202761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178467</v>
+        <v>181691</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225794</v>
+        <v>225167</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3973137798571899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3497100408170462</v>
+        <v>0.3560269959165914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4424483236016921</v>
+        <v>0.4412188218883464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -1270,19 +1270,19 @@
         <v>180937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158486</v>
+        <v>158870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>202159</v>
+        <v>204244</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3069378425997598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2688515165418224</v>
+        <v>0.2695035873209965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3429368725139788</v>
+        <v>0.3464738723329057</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>372</v>
@@ -1291,19 +1291,19 @@
         <v>383699</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352548</v>
+        <v>353364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>415008</v>
+        <v>418041</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3488732733206545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3205501345303216</v>
+        <v>0.3212919671429181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3773406921866927</v>
+        <v>0.380099126728546</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>119486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103034</v>
+        <v>102075</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137567</v>
+        <v>138484</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4119651515700622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3552429933848258</v>
+        <v>0.3519350825370591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4743051022715645</v>
+        <v>0.4774682550735683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1416,19 +1416,19 @@
         <v>128026</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113254</v>
+        <v>114185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144103</v>
+        <v>143848</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5378272516891949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.475771033705897</v>
+        <v>0.4796804020403816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6053645091475942</v>
+        <v>0.6042942037660297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>235</v>
@@ -1437,19 +1437,19 @@
         <v>247512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225328</v>
+        <v>224355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272883</v>
+        <v>272198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4687000335645304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4266912749900306</v>
+        <v>0.4248492559064733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5167441301157311</v>
+        <v>0.5154471992564271</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>170552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152471</v>
+        <v>151554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187004</v>
+        <v>187963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5880348484299378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5256948977284355</v>
+        <v>0.5225317449264318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6447570066151741</v>
+        <v>0.6480649174629409</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -1487,19 +1487,19 @@
         <v>110017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93940</v>
+        <v>94195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124789</v>
+        <v>123858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4621727483108051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3946354908524056</v>
+        <v>0.3957057962339704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5242289662941028</v>
+        <v>0.5203195979596185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -1508,19 +1508,19 @@
         <v>280570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255199</v>
+        <v>255884</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302754</v>
+        <v>303727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5312999664354696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4832558698842688</v>
+        <v>0.4845528007435728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5733087250099691</v>
+        <v>0.5751507440935267</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>21701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14333</v>
+        <v>14136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32072</v>
+        <v>30903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2007410138263377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1325869019309437</v>
+        <v>0.130769421518008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.296686763717677</v>
+        <v>0.2858657225180718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1633,19 +1633,19 @@
         <v>70196</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57991</v>
+        <v>55881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83930</v>
+        <v>83488</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3503142924763815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2894063058153584</v>
+        <v>0.2788768810316869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4188559917857524</v>
+        <v>0.4166502347440565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1654,19 +1654,19 @@
         <v>91896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76917</v>
+        <v>77396</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109017</v>
+        <v>109314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.297898968825733</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.24934239826258</v>
+        <v>0.2508950498920489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3534009043336075</v>
+        <v>0.3543616003309061</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>86401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76030</v>
+        <v>77199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93769</v>
+        <v>93966</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7992589861736623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7033132362823231</v>
+        <v>0.7141342774819283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8674130980690563</v>
+        <v>0.8692305784819919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -1704,19 +1704,19 @@
         <v>130183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116449</v>
+        <v>116891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142388</v>
+        <v>144498</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6496857075236185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5811440082142475</v>
+        <v>0.5833497652559435</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7105936941846416</v>
+        <v>0.7211231189683132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -1725,19 +1725,19 @@
         <v>216585</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199464</v>
+        <v>199167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231564</v>
+        <v>231085</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.702101031174267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6465990956663925</v>
+        <v>0.6456383996690939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7506576017374201</v>
+        <v>0.7491049501079511</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10798</v>
+        <v>11107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26829</v>
+        <v>27000</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06038942455956538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03690707246609527</v>
+        <v>0.0379624175508431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09169766260727642</v>
+        <v>0.09228095930171898</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1850,19 +1850,19 @@
         <v>47913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35669</v>
+        <v>36727</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60351</v>
+        <v>60359</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1400825394465159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1042856446398416</v>
+        <v>0.107376978948645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1764466030794302</v>
+        <v>0.1764688684743274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -1871,19 +1871,19 @@
         <v>65582</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52456</v>
+        <v>50407</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81144</v>
+        <v>80230</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1033409885508738</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08265739545709595</v>
+        <v>0.07942884285205912</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.127862955695375</v>
+        <v>0.1264232451944783</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>274914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265754</v>
+        <v>265583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281785</v>
+        <v>281476</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9396105754404346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9083023373927236</v>
+        <v>0.9077190406982808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9630929275339046</v>
+        <v>0.9620375824491568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -1921,19 +1921,19 @@
         <v>294122</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281684</v>
+        <v>281676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>306366</v>
+        <v>305308</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8599174605534841</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8235533969205705</v>
+        <v>0.8235311315256725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8957143553601585</v>
+        <v>0.8926230210513543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>602</v>
@@ -1942,19 +1942,19 @@
         <v>569036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>553474</v>
+        <v>554388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>582162</v>
+        <v>584211</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8966590114491262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8721370443046249</v>
+        <v>0.8735767548055218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9173426045429041</v>
+        <v>0.9205711571479407</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>21701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13793</v>
+        <v>14167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31303</v>
+        <v>30821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1033941886355234</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06571541533648262</v>
+        <v>0.0674978562229115</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1491464796830496</v>
+        <v>0.146846572653884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2067,19 +2067,19 @@
         <v>28491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19426</v>
+        <v>19116</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40355</v>
+        <v>41544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08532568615218733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05817777957883432</v>
+        <v>0.05724864344262581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1208572156797139</v>
+        <v>0.1244175447546427</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2088,19 +2088,19 @@
         <v>50192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38389</v>
+        <v>38377</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64955</v>
+        <v>65083</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09229945297725992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07059537519097484</v>
+        <v>0.07057330845058433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.119447584394344</v>
+        <v>0.119683259920089</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>188182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178580</v>
+        <v>179062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>196090</v>
+        <v>195716</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8966058113644766</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8508535203169504</v>
+        <v>0.8531534273461167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9342845846635174</v>
+        <v>0.9325021437770885</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -2138,19 +2138,19 @@
         <v>305417</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>293553</v>
+        <v>292364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>314482</v>
+        <v>314792</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9146743138478127</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8791427843202863</v>
+        <v>0.8755824552453574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9418222204211657</v>
+        <v>0.9427513565573743</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -2159,19 +2159,19 @@
         <v>493599</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478836</v>
+        <v>478708</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>505402</v>
+        <v>505414</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9077005470227401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.880552415605656</v>
+        <v>0.880316740079911</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9294046248090253</v>
+        <v>0.9294266915494157</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>706004</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.369591729116386</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1018</v>
@@ -2284,19 +2284,19 @@
         <v>1058698</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4600310069908319</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1697</v>
@@ -2305,19 +2305,19 @@
         <v>1764702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.419010984531705</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1204222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1162888</v>
+        <v>1164379</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1248321</v>
+        <v>1247345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.630408270883614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6087697445786061</v>
+        <v>0.6095506282230889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6534936874135684</v>
+        <v>0.6529828266548353</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1217</v>
@@ -2355,19 +2355,19 @@
         <v>1242664</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1193557</v>
+        <v>1197299</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1289878</v>
+        <v>1291318</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5399689930091681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5186307562633378</v>
+        <v>0.5202566817191053</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5604845448393281</v>
+        <v>0.561110157579521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2423</v>
@@ -2376,19 +2376,19 @@
         <v>2446886</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2382161</v>
+        <v>2381371</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2510887</v>
+        <v>2507975</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.580989015468295</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5656205153267144</v>
+        <v>0.5654330827527713</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5961852580026645</v>
+        <v>0.59549381081601</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>54037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41821</v>
+        <v>42760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67458</v>
+        <v>68045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3061909111530076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.236970301711396</v>
+        <v>0.2422929755425359</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3822426551943686</v>
+        <v>0.3855650727042677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -2744,19 +2744,19 @@
         <v>118550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101126</v>
+        <v>103900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132082</v>
+        <v>132525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5468414224086445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4664701745995303</v>
+        <v>0.4792672699851174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.609261068126436</v>
+        <v>0.6113077905444951</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -2765,19 +2765,19 @@
         <v>172586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>153207</v>
+        <v>151539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>191903</v>
+        <v>194170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4388495552110682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.389572975549108</v>
+        <v>0.3853304866158345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4879678893575224</v>
+        <v>0.4937336850690387</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>122443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109022</v>
+        <v>108435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134659</v>
+        <v>133720</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6938090888469924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6177573448056314</v>
+        <v>0.6144349272957323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7630296982886039</v>
+        <v>0.7577070244574641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -2815,19 +2815,19 @@
         <v>98240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84708</v>
+        <v>84265</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115664</v>
+        <v>112890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4531585775913555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.390738931873564</v>
+        <v>0.388692209455505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5335298254004698</v>
+        <v>0.5207327300148827</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -2836,19 +2836,19 @@
         <v>220683</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>201366</v>
+        <v>199099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>240062</v>
+        <v>241730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5611504447889318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5120321106424774</v>
+        <v>0.5062663149309613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6104270244508917</v>
+        <v>0.6146695133841654</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>218163</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198964</v>
+        <v>201111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234451</v>
+        <v>236278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6806276656190622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6207291990393594</v>
+        <v>0.6274281265659551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7314429182695023</v>
+        <v>0.7371444552873437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>366</v>
@@ -2961,19 +2961,19 @@
         <v>391512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>379137</v>
+        <v>378853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>401586</v>
+        <v>401459</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9216459220860619</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8925146096730493</v>
+        <v>0.8918462563995883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.945362332424118</v>
+        <v>0.9450619237015943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>578</v>
@@ -2982,19 +2982,19 @@
         <v>609675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>585653</v>
+        <v>587983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>630163</v>
+        <v>629836</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8179949069287599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7857660244753147</v>
+        <v>0.7888913361608937</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8454839587660404</v>
+        <v>0.8450456826760256</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>102369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86081</v>
+        <v>84254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121568</v>
+        <v>119421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3193723343809379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2685570817304978</v>
+        <v>0.2628555447126563</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3792708009606408</v>
+        <v>0.3725718734340449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -3032,19 +3032,19 @@
         <v>33284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23210</v>
+        <v>23337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45659</v>
+        <v>45943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07835407791393816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.054637667575882</v>
+        <v>0.05493807629840568</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1074853903269507</v>
+        <v>0.1081537436004116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -3053,19 +3053,19 @@
         <v>135653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115165</v>
+        <v>115492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159675</v>
+        <v>157345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1820050930712402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.15451604123396</v>
+        <v>0.1549543173239745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2142339755246853</v>
+        <v>0.2111086638391069</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>423869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402985</v>
+        <v>402437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444755</v>
+        <v>444289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.74421142795559</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7075436981438746</v>
+        <v>0.7065807554518312</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7808812567803132</v>
+        <v>0.7800628061289338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>545</v>
@@ -3178,19 +3178,19 @@
         <v>578861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>563760</v>
+        <v>565451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>587469</v>
+        <v>588388</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9493189145590603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9245532762167489</v>
+        <v>0.9273260171775117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9634357792760926</v>
+        <v>0.9649422183742007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>953</v>
@@ -3199,19 +3199,19 @@
         <v>1002732</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>967508</v>
+        <v>976461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1025071</v>
+        <v>1025984</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8502618504714439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8203939138326205</v>
+        <v>0.8279853680905067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8692047263177922</v>
+        <v>0.8699788098405723</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>145686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124800</v>
+        <v>125266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166570</v>
+        <v>167118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.25578857204441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2191187432196869</v>
+        <v>0.2199371938710667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2924563018561254</v>
+        <v>0.293419244548169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3249,19 +3249,19 @@
         <v>30904</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22296</v>
+        <v>21377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46005</v>
+        <v>44314</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05068108544093974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03656422072390733</v>
+        <v>0.03505778162579924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07544672378325087</v>
+        <v>0.07267398282248824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -3270,19 +3270,19 @@
         <v>176589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>154250</v>
+        <v>153337</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211813</v>
+        <v>202860</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1497381495285561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1307952736822078</v>
+        <v>0.1300211901594278</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1796060861673795</v>
+        <v>0.1720146319094933</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>242627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220718</v>
+        <v>221941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>260523</v>
+        <v>262025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6467060616545537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5883070512047504</v>
+        <v>0.5915680752177502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6944064480639822</v>
+        <v>0.6984092882123877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -3395,19 +3395,19 @@
         <v>265845</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251755</v>
+        <v>251786</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277356</v>
+        <v>278129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.863929178972683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8181399969969396</v>
+        <v>0.8182398861986302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9013368492496691</v>
+        <v>0.9038511767521866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>452</v>
@@ -3416,19 +3416,19 @@
         <v>508472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482446</v>
+        <v>483499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>531008</v>
+        <v>530846</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.744588597654177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7064774800613026</v>
+        <v>0.7080186590746456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7775898124335746</v>
+        <v>0.7773525348007854</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>132547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114651</v>
+        <v>113149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154456</v>
+        <v>153233</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3532939383454464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3055935519360179</v>
+        <v>0.3015907117876123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4116929487952497</v>
+        <v>0.40843192478225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -3466,19 +3466,19 @@
         <v>41871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30360</v>
+        <v>29587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55961</v>
+        <v>55930</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1360708210273171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09866315075033096</v>
+        <v>0.09614882324781358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1818600030030603</v>
+        <v>0.1817601138013701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -3487,19 +3487,19 @@
         <v>174418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151882</v>
+        <v>152044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200444</v>
+        <v>199391</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2554114023458231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2224101875664255</v>
+        <v>0.2226474651992147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2935225199386974</v>
+        <v>0.2919813409253547</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>64495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52359</v>
+        <v>53085</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77442</v>
+        <v>77934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.454947516285571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.369340066794569</v>
+        <v>0.3744623130896197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5462714959961918</v>
+        <v>0.5497459157426942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -3612,19 +3612,19 @@
         <v>100491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84930</v>
+        <v>85514</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115878</v>
+        <v>115968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.452422801070119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3823654054389521</v>
+        <v>0.3849931652881389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5216972704463063</v>
+        <v>0.522102539569874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -3633,19 +3633,19 @@
         <v>164986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>144222</v>
+        <v>146101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185105</v>
+        <v>184776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4534063992983189</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3963425091628458</v>
+        <v>0.4015055671950457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5086943158011831</v>
+        <v>0.5077911512593031</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>77269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64322</v>
+        <v>63830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89405</v>
+        <v>88679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.545052483714429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4537285040038079</v>
+        <v>0.4502540842573061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6306599332054309</v>
+        <v>0.6255376869103803</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -3683,19 +3683,19 @@
         <v>121627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106240</v>
+        <v>106150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137188</v>
+        <v>136604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.547577198929881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4783027295536939</v>
+        <v>0.477897460430126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.617634594561048</v>
+        <v>0.6150068347118611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>185</v>
@@ -3704,19 +3704,19 @@
         <v>198896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178777</v>
+        <v>179106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>219660</v>
+        <v>217781</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5465936007016812</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4913056841988169</v>
+        <v>0.4922088487406969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6036574908371543</v>
+        <v>0.5984944328049544</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>31599</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21510</v>
+        <v>21972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42946</v>
+        <v>45118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1032680456359429</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07029593357728543</v>
+        <v>0.07180697209011101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1403533505678384</v>
+        <v>0.1474513776839414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -3829,19 +3829,19 @@
         <v>49215</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36306</v>
+        <v>37014</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63345</v>
+        <v>64275</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1406508610263536</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1037591042328426</v>
+        <v>0.1057804414760888</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1810330108721872</v>
+        <v>0.1836899217804902</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -3850,19 +3850,19 @@
         <v>80814</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64505</v>
+        <v>64818</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100121</v>
+        <v>98154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1232111637829239</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0983460112305594</v>
+        <v>0.09882390737245532</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1526476709503238</v>
+        <v>0.1496485291516286</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>274388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263041</v>
+        <v>260869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284477</v>
+        <v>284015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8967319543640571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8596466494321616</v>
+        <v>0.8525486223160582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9297040664227146</v>
+        <v>0.9281930279098886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>291</v>
@@ -3900,19 +3900,19 @@
         <v>300695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>286565</v>
+        <v>285635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>313604</v>
+        <v>312896</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8593491389736464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8189669891278131</v>
+        <v>0.8163100782195098</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8962408957671575</v>
+        <v>0.8942195585239109</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -3921,19 +3921,19 @@
         <v>575083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>555776</v>
+        <v>557743</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>591392</v>
+        <v>591079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8767888362170762</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8473523290496762</v>
+        <v>0.8503514708483714</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9016539887694406</v>
+        <v>0.9011760926275446</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>20452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11817</v>
+        <v>11416</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32806</v>
+        <v>31932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08252306880240287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04768070947243143</v>
+        <v>0.04606129049880118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1323697154695893</v>
+        <v>0.1288430882779909</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -4046,19 +4046,19 @@
         <v>45549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34593</v>
+        <v>33676</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60574</v>
+        <v>59914</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1180828975215571</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08968191647588084</v>
+        <v>0.08730284205140117</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1570362139521047</v>
+        <v>0.1553251911745505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -4067,19 +4067,19 @@
         <v>66001</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50202</v>
+        <v>49769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82659</v>
+        <v>84560</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1041728763679124</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0792362542719962</v>
+        <v>0.07855263345068358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1304650328231736</v>
+        <v>0.1334653846934349</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>227383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215029</v>
+        <v>215903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>236018</v>
+        <v>236419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9174769311975971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8676302845304107</v>
+        <v>0.8711569117220077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9523192905275686</v>
+        <v>0.9539387095011976</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>306</v>
@@ -4117,19 +4117,19 @@
         <v>340186</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>325161</v>
+        <v>325821</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>351142</v>
+        <v>352059</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8819171024784429</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8429637860478952</v>
+        <v>0.8446748088254493</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9103180835241194</v>
+        <v>0.9126971579485987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>510</v>
@@ -4138,19 +4138,19 @@
         <v>567569</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550911</v>
+        <v>549010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>583368</v>
+        <v>583801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8958271236320876</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8695349671768265</v>
+        <v>0.8665346153065651</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9207637457280039</v>
+        <v>0.9214473665493164</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1055242</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4937206355335992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1439</v>
@@ -4263,19 +4263,19 @@
         <v>1550023</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6158631954970049</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2436</v>
@@ -4284,19 +4284,19 @@
         <v>2605265</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5597717211130014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1082084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1034015</v>
+        <v>1028402</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1132244</v>
+        <v>1129437</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5062793644664008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4837893086428177</v>
+        <v>0.4811630565107921</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5297481336689498</v>
+        <v>0.5284344909699149</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>904</v>
@@ -4334,19 +4334,19 @@
         <v>966807</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>921094</v>
+        <v>920622</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1018246</v>
+        <v>1016469</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3841368045029952</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3659739297486909</v>
+        <v>0.3657865087990987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4045746457910288</v>
+        <v>0.4038687760645839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1901</v>
@@ -4355,19 +4355,19 @@
         <v>2048891</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1984109</v>
+        <v>1983048</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2119018</v>
+        <v>2117218</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4402282788869986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.426309146495125</v>
+        <v>0.4260810621594442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.455295796139535</v>
+        <v>0.4549090472977224</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>49659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38493</v>
+        <v>38432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63456</v>
+        <v>62253</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3209391696078893</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2487744707602231</v>
+        <v>0.2483796086669101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4101088910404432</v>
+        <v>0.4023358800629384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -4723,19 +4723,19 @@
         <v>101867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88520</v>
+        <v>89006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114766</v>
+        <v>113681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5822663205103623</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5059784797134309</v>
+        <v>0.5087536635692371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6559994210250806</v>
+        <v>0.6497958257411345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -4744,19 +4744,19 @@
         <v>151526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132948</v>
+        <v>132093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170511</v>
+        <v>167984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4596167220303199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4032668066575709</v>
+        <v>0.4006739110705551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5172055897862559</v>
+        <v>0.5095388517629967</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>105070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91273</v>
+        <v>92476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116236</v>
+        <v>116297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6790608303921107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5898911089595569</v>
+        <v>0.5976641199370609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.751225529239777</v>
+        <v>0.7516203913330897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -4794,19 +4794,19 @@
         <v>73082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60183</v>
+        <v>61268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86429</v>
+        <v>85943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4177336794896376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3440005789749194</v>
+        <v>0.3502041742588656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.494021520286569</v>
+        <v>0.4912463364307629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -4815,19 +4815,19 @@
         <v>178152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159167</v>
+        <v>161694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>196730</v>
+        <v>197585</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5403832779696801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4827944102137442</v>
+        <v>0.4904611482370032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5967331933424292</v>
+        <v>0.5993260889294448</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>194385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177979</v>
+        <v>179142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208068</v>
+        <v>207426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7456360196959499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6827046772961937</v>
+        <v>0.687165434610122</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7981238144495124</v>
+        <v>0.795659440151126</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -4940,19 +4940,19 @@
         <v>311377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>297986</v>
+        <v>299196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>322189</v>
+        <v>323657</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8688151456279508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8314512498309985</v>
+        <v>0.8348256579347738</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8989823851687679</v>
+        <v>0.9030794497822391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>505</v>
@@ -4961,19 +4961,19 @@
         <v>505762</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>485697</v>
+        <v>484858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>524383</v>
+        <v>522092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8169447944498514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.784534205437316</v>
+        <v>0.7831777692699357</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8470220991392738</v>
+        <v>0.8433221889693143</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>66312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52629</v>
+        <v>53271</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82718</v>
+        <v>81555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2543639803040501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2018761855504877</v>
+        <v>0.204340559848874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3172953227038064</v>
+        <v>0.3128345653898782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -5011,19 +5011,19 @@
         <v>47016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36204</v>
+        <v>34736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60407</v>
+        <v>59197</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1311848543720492</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1010176148312323</v>
+        <v>0.09692055021776101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1685487501690018</v>
+        <v>0.1651743420652263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -5032,19 +5032,19 @@
         <v>113328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94707</v>
+        <v>96998</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133393</v>
+        <v>134232</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1830552055501486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1529779008607262</v>
+        <v>0.1566778110306856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2154657945626841</v>
+        <v>0.2168222307300644</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>334284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>314513</v>
+        <v>315148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>353634</v>
+        <v>352946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7198570470894075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6772806241598919</v>
+        <v>0.6786486593529716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7615258082711089</v>
+        <v>0.7600440237267144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -5157,19 +5157,19 @@
         <v>430847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>411791</v>
+        <v>410838</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>446590</v>
+        <v>448382</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7960818755140616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7608722925665502</v>
+        <v>0.7591115886513636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8251716825458342</v>
+        <v>0.8284816610910795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>753</v>
@@ -5178,19 +5178,19 @@
         <v>765130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>737837</v>
+        <v>737406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>790539</v>
+        <v>789317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7608814829140657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7337396629165821</v>
+        <v>0.7333116027965579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7861486886030216</v>
+        <v>0.7849337679606007</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>130092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110742</v>
+        <v>111430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149863</v>
+        <v>149228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2801429529105925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2384741917288912</v>
+        <v>0.2399559762732856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3227193758401083</v>
+        <v>0.3213513406470284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -5228,19 +5228,19 @@
         <v>110362</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94619</v>
+        <v>92827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129418</v>
+        <v>130371</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2039181244859384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1748283174541658</v>
+        <v>0.1715183389089206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2391277074334499</v>
+        <v>0.2408884113486364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -5249,19 +5249,19 @@
         <v>240454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>215045</v>
+        <v>216267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267747</v>
+        <v>268178</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2391185170859344</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2138513113969784</v>
+        <v>0.2150662320393993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2662603370834179</v>
+        <v>0.266688397203442</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>174789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156610</v>
+        <v>157295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194562</v>
+        <v>194950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5141488317696471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4606731297216475</v>
+        <v>0.4626887247385771</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5723116257871901</v>
+        <v>0.5734536172604129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -5374,19 +5374,19 @@
         <v>194646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177001</v>
+        <v>177676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210473</v>
+        <v>212498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6162479458443654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5603842884719928</v>
+        <v>0.5625231896250557</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6663560488435294</v>
+        <v>0.6727696174106972</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>339</v>
@@ -5395,19 +5395,19 @@
         <v>369435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344606</v>
+        <v>345077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>395181</v>
+        <v>397902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.563322310283535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5254623365924369</v>
+        <v>0.5261811701618381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6025814865138555</v>
+        <v>0.6067295205394636</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>165169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145396</v>
+        <v>145008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183348</v>
+        <v>182663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4858511682303529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4276883742128099</v>
+        <v>0.4265463827395868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5393268702783524</v>
+        <v>0.5373112752614229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -5445,19 +5445,19 @@
         <v>121210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105383</v>
+        <v>103358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138855</v>
+        <v>138180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3837520541556346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3336439511564706</v>
+        <v>0.3272303825893026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.439615711528007</v>
+        <v>0.4374768103749442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -5466,19 +5466,19 @@
         <v>286379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260633</v>
+        <v>257912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>311208</v>
+        <v>310737</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.436677689716465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3974185134861445</v>
+        <v>0.3932704794605357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4745376634075631</v>
+        <v>0.4738188298381618</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>42571</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32615</v>
+        <v>32841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54819</v>
+        <v>54762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3268803758655541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2504355157046086</v>
+        <v>0.2521666645636884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4209247964973458</v>
+        <v>0.4204928335106924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -5591,19 +5591,19 @@
         <v>61113</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48195</v>
+        <v>47859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76310</v>
+        <v>75397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2987227548901796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2355768706723269</v>
+        <v>0.2339345782908433</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3730082058062847</v>
+        <v>0.3685444036057677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -5612,19 +5612,19 @@
         <v>103684</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87245</v>
+        <v>86808</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124247</v>
+        <v>121969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3096753178507163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.26057799120742</v>
+        <v>0.2592704753593775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3710904097616847</v>
+        <v>0.3642866149613287</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>87663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75415</v>
+        <v>75472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97619</v>
+        <v>97393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6731196241344459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5790752035026542</v>
+        <v>0.5795071664893076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7495644842953914</v>
+        <v>0.7478333354363116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -5662,19 +5662,19 @@
         <v>143468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128271</v>
+        <v>129184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156386</v>
+        <v>156722</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7012772451098204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6269917941937154</v>
+        <v>0.6314555963942324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7644231293276731</v>
+        <v>0.7660654217091567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -5683,19 +5683,19 @@
         <v>231131</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>210568</v>
+        <v>212846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247570</v>
+        <v>248007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6903246821492837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6289095902383151</v>
+        <v>0.6357133850386714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7394220087925797</v>
+        <v>0.7407295246406219</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>24339</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16276</v>
+        <v>15846</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35082</v>
+        <v>35182</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0809611489869429</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05413885628183039</v>
+        <v>0.05270996511778733</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.116696989756108</v>
+        <v>0.1170270497638233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -5808,19 +5808,19 @@
         <v>45721</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33789</v>
+        <v>32797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59322</v>
+        <v>60757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1320660214877376</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09760122656124551</v>
+        <v>0.09473343080141573</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1713537204079968</v>
+        <v>0.1754966155953955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -5829,19 +5829,19 @@
         <v>70060</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55162</v>
+        <v>56321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89964</v>
+        <v>88272</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1083138583772866</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08528030239443526</v>
+        <v>0.08707299383138718</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1390852213758128</v>
+        <v>0.1364695109471832</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>276289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265546</v>
+        <v>265446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284352</v>
+        <v>284782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.919038851013057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8833030102438911</v>
+        <v>0.8829729502361767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9458611437181693</v>
+        <v>0.9472900348822124</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>282</v>
@@ -5879,19 +5879,19 @@
         <v>300478</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>286877</v>
+        <v>285442</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>312410</v>
+        <v>313402</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8679339785122624</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.828646279592003</v>
+        <v>0.8245033844046046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9023987734387543</v>
+        <v>0.9052665691985843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>549</v>
@@ -5900,19 +5900,19 @@
         <v>576767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>556863</v>
+        <v>558555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>591665</v>
+        <v>590506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8916861416227133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8609147786241872</v>
+        <v>0.8635304890528169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9147196976055647</v>
+        <v>0.9129270061686128</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>18384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11963</v>
+        <v>12090</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27240</v>
+        <v>27304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07463972005581436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0485682438430711</v>
+        <v>0.04908594700827727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1105941664250428</v>
+        <v>0.1108536586284124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -6025,19 +6025,19 @@
         <v>51402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36898</v>
+        <v>37692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69624</v>
+        <v>68753</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1305182603386645</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09369056138381671</v>
+        <v>0.09570504398619582</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1767857018242478</v>
+        <v>0.1745728793277714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -6046,19 +6046,19 @@
         <v>69787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54333</v>
+        <v>54555</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89407</v>
+        <v>88736</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1090178336860827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08487719587619055</v>
+        <v>0.08522400054919214</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1396681110637268</v>
+        <v>0.1386202589595611</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>227923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>219067</v>
+        <v>219003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>234344</v>
+        <v>234217</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9253602799441857</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8894058335749573</v>
+        <v>0.8891463413715877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9514317561569291</v>
+        <v>0.9509140529917227</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>259</v>
@@ -6096,19 +6096,19 @@
         <v>342431</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>324209</v>
+        <v>325080</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>356935</v>
+        <v>356141</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8694817396613355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8232142981757526</v>
+        <v>0.8254271206722296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9063094386161833</v>
+        <v>0.9042949560138051</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>527</v>
@@ -6117,19 +6117,19 @@
         <v>570353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550733</v>
+        <v>551404</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>585807</v>
+        <v>585585</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8909821663139174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8603318889362731</v>
+        <v>0.8613797410404384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9151228041238094</v>
+        <v>0.9147759994508078</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>838411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4419834977661261</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1166</v>
@@ -6242,19 +6242,19 @@
         <v>1196973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5126178078255506</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1959</v>
@@ -6263,19 +6263,19 @@
         <v>2035384</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4809566904588984</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1058517</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1017935</v>
+        <v>1013753</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1103186</v>
+        <v>1098938</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5580165022338739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5366229903395906</v>
+        <v>0.5344183043249431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5815644773457248</v>
+        <v>0.5793249544471337</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1015</v>
@@ -6313,19 +6313,19 @@
         <v>1138047</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1088446</v>
+        <v>1093555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1187870</v>
+        <v>1190003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4873821921744494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4661397934305924</v>
+        <v>0.4683278306630919</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5087195424633463</v>
+        <v>0.5096330644024227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2064</v>
@@ -6334,19 +6334,19 @@
         <v>2196564</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2131373</v>
+        <v>2133210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2261802</v>
+        <v>2267825</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5190433095411016</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.503638689639029</v>
+        <v>0.5040727444015256</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5344588308104368</v>
+        <v>0.5358821257048046</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>13652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5633</v>
+        <v>5961</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27749</v>
+        <v>26980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03347733331810035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01381303726092508</v>
+        <v>0.0146183020715725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06804768921849644</v>
+        <v>0.06616065149035552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -6702,19 +6702,19 @@
         <v>27335</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15872</v>
+        <v>15835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42931</v>
+        <v>42814</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07540371612241593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04378320418589216</v>
+        <v>0.04368232474102773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1184274245615912</v>
+        <v>0.118103630720791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -6723,19 +6723,19 @@
         <v>40987</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26521</v>
+        <v>26074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63814</v>
+        <v>59760</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05320823872727402</v>
+        <v>0.05320823872727401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03442920965684417</v>
+        <v>0.03384878609010469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08284245091072688</v>
+        <v>0.07757945991479065</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>394141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380044</v>
+        <v>380813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402160</v>
+        <v>401832</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9665226666818999</v>
+        <v>0.9665226666818997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9319523107815039</v>
+        <v>0.9338393485096446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9861869627390751</v>
+        <v>0.9853816979284274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -6773,19 +6773,19 @@
         <v>335177</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319581</v>
+        <v>319698</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346640</v>
+        <v>346677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.924596283877584</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8815725754384088</v>
+        <v>0.8818963692792089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9562167958141079</v>
+        <v>0.956317675258972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -6794,19 +6794,19 @@
         <v>729318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>706491</v>
+        <v>710545</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743784</v>
+        <v>744231</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9467917612727261</v>
+        <v>0.946791761272726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9171575490892739</v>
+        <v>0.9224205400852098</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9655707903431561</v>
+        <v>0.9661512139098952</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>45672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31874</v>
+        <v>32411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63696</v>
+        <v>64851</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09577143916344648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06683762551934037</v>
+        <v>0.06796364731490522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1335649585704824</v>
+        <v>0.1359879571108036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -6919,19 +6919,19 @@
         <v>99698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80342</v>
+        <v>79513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119052</v>
+        <v>118487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1987073453969231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.160129010248611</v>
+        <v>0.1584760512873111</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2372821488694266</v>
+        <v>0.2361557440243958</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>124</v>
@@ -6940,19 +6940,19 @@
         <v>145370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125181</v>
+        <v>122181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174438</v>
+        <v>173629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1485459063419383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1279157195051683</v>
+        <v>0.1248496209937322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1782480133846357</v>
+        <v>0.1774222156502803</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>431218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413194</v>
+        <v>412039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445016</v>
+        <v>444479</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9042285608365535</v>
+        <v>0.9042285608365536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8664350414295178</v>
+        <v>0.8640120428891965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9331623744806598</v>
+        <v>0.9320363526850949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -6990,19 +6990,19 @@
         <v>402035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>382681</v>
+        <v>383246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>421391</v>
+        <v>422220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8012926546030769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7627178511305737</v>
+        <v>0.7638442559756042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8398709897513891</v>
+        <v>0.8415239487126888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>639</v>
@@ -7011,19 +7011,19 @@
         <v>833253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>804185</v>
+        <v>804994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>853442</v>
+        <v>856442</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8514540936580616</v>
+        <v>0.8514540936580617</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8217519866153645</v>
+        <v>0.8225777843497196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8720842804948317</v>
+        <v>0.8751503790062679</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>106312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86388</v>
+        <v>87749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126215</v>
+        <v>126322</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1712398545206986</v>
+        <v>0.1712398545206985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1391483997782405</v>
+        <v>0.141339728990784</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2032988059445552</v>
+        <v>0.203469770062085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -7136,19 +7136,19 @@
         <v>137889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120909</v>
+        <v>120136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157537</v>
+        <v>155847</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2212629012752666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1940146199396476</v>
+        <v>0.1927750465819731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2527896095874091</v>
+        <v>0.2500784364137729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -7157,19 +7157,19 @@
         <v>244201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>216654</v>
+        <v>216375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>269753</v>
+        <v>271513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1962987419575427</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1741551088116725</v>
+        <v>0.1739312062834876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2168385684974814</v>
+        <v>0.218253133834822</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>514525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>494622</v>
+        <v>494515</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534449</v>
+        <v>533088</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8287601454793014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7967011940554446</v>
+        <v>0.7965302299379151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8608516002217594</v>
+        <v>0.858660271009216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>671</v>
@@ -7207,19 +7207,19 @@
         <v>485304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465656</v>
+        <v>467346</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>502284</v>
+        <v>503057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7787370987247334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7472103904125909</v>
+        <v>0.749921563586227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8059853800603521</v>
+        <v>0.8072249534180268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1126</v>
@@ -7228,19 +7228,19 @@
         <v>999828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>974276</v>
+        <v>972516</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1027375</v>
+        <v>1027654</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8037012580424574</v>
+        <v>0.8037012580424572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7831614315025187</v>
+        <v>0.781746866165178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8258448911883276</v>
+        <v>0.8260687937165122</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>75830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60432</v>
+        <v>60181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92852</v>
+        <v>94240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1082337623747913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08625485129744878</v>
+        <v>0.08589759388832549</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1325291550232</v>
+        <v>0.1345094974435347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -7353,19 +7353,19 @@
         <v>101470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87088</v>
+        <v>86019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117880</v>
+        <v>116661</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.137700866724161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1181835801480035</v>
+        <v>0.116732521324609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1599703158985904</v>
+        <v>0.1583155619712062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -7374,19 +7374,19 @@
         <v>177300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154786</v>
+        <v>155106</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201561</v>
+        <v>199481</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1233390523361956</v>
+        <v>0.1233390523361957</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.107676706093531</v>
+        <v>0.1078998439087202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1402156574316118</v>
+        <v>0.1387691125351631</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>624787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607765</v>
+        <v>606377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>640185</v>
+        <v>640436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8917662376252088</v>
+        <v>0.8917662376252086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8674708449768</v>
+        <v>0.8654905025564652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9137451487025513</v>
+        <v>0.9141024061116744</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>995</v>
@@ -7424,19 +7424,19 @@
         <v>635416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>619006</v>
+        <v>620225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>649798</v>
+        <v>650867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.862299133275839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8400296841014098</v>
+        <v>0.8416844380287937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8818164198519967</v>
+        <v>0.883267478675391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1590</v>
@@ -7445,19 +7445,19 @@
         <v>1260204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1235943</v>
+        <v>1238023</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1282718</v>
+        <v>1282398</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8766609476638042</v>
+        <v>0.8766609476638043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8597843425683881</v>
+        <v>0.8612308874648371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.892323293906469</v>
+        <v>0.8921001560912798</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>34793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24645</v>
+        <v>24625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47536</v>
+        <v>46780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05709948998641783</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04044513525542166</v>
+        <v>0.04041261648437424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0780120195071098</v>
+        <v>0.07677150054526519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -7570,19 +7570,19 @@
         <v>50104</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40579</v>
+        <v>40084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61375</v>
+        <v>62007</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08229214654913217</v>
+        <v>0.08229214654913218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06664832015465551</v>
+        <v>0.0658353982424091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1008044534028952</v>
+        <v>0.1018417007720591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -7591,19 +7591,19 @@
         <v>84897</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72229</v>
+        <v>69692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101497</v>
+        <v>102303</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06969074082939297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05929132056214016</v>
+        <v>0.05720866711508266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0833172629536329</v>
+        <v>0.0839789960792405</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>574553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>561810</v>
+        <v>562566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>584701</v>
+        <v>584721</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.942900510013582</v>
+        <v>0.9429005100135822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.92198798049289</v>
+        <v>0.9232284994547347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9595548647445783</v>
+        <v>0.9595873835156259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>924</v>
@@ -7641,19 +7641,19 @@
         <v>558751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>547480</v>
+        <v>546848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>568276</v>
+        <v>568771</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9177078534508676</v>
+        <v>0.9177078534508679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.899195546597104</v>
+        <v>0.898158299227941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9333516798453443</v>
+        <v>0.9341646017575908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1550</v>
@@ -7662,19 +7662,19 @@
         <v>1133305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1116705</v>
+        <v>1115899</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1145973</v>
+        <v>1148510</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.930309259170607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9166827370463669</v>
+        <v>0.9160210039207594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9407086794378602</v>
+        <v>0.9427913328849173</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>15972</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10244</v>
+        <v>10493</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22921</v>
+        <v>23505</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03923619326098484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0251648319346776</v>
+        <v>0.02577521494765287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05630532845530623</v>
+        <v>0.05774086728326631</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -7787,19 +7787,19 @@
         <v>31095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24087</v>
+        <v>23863</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38550</v>
+        <v>40134</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07080423222234417</v>
+        <v>0.07080423222234415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05484823141783254</v>
+        <v>0.05433653842490994</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08778032812064976</v>
+        <v>0.09138626350760456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -7808,19 +7808,19 @@
         <v>47067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37869</v>
+        <v>37310</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58727</v>
+        <v>58108</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05561868331991424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04474894072243207</v>
+        <v>0.04408832006163674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0693972105310719</v>
+        <v>0.06866518499480471</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>391108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>384159</v>
+        <v>383575</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>396836</v>
+        <v>396587</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.960763806739015</v>
+        <v>0.9607638067390152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9436946715446937</v>
+        <v>0.9422591327167336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9748351680653224</v>
+        <v>0.9742247850523469</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>769</v>
@@ -7858,19 +7858,19 @@
         <v>408071</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400616</v>
+        <v>399032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415079</v>
+        <v>415303</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9291957677776559</v>
+        <v>0.9291957677776558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9122196718793502</v>
+        <v>0.9086137364923949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9451517685821674</v>
+        <v>0.94566346157509</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1316</v>
@@ -7879,19 +7879,19 @@
         <v>799179</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>787519</v>
+        <v>788138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>808377</v>
+        <v>808936</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9443813166800857</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9306027894689277</v>
+        <v>0.9313348150051954</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9552510592775679</v>
+        <v>0.9559116799383633</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>21007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13856</v>
+        <v>14480</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29516</v>
+        <v>29375</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06772159950696474</v>
+        <v>0.06772159950696473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04466805364211507</v>
+        <v>0.04668059876753398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09515283416711832</v>
+        <v>0.09469804048322625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -8004,19 +8004,19 @@
         <v>33048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25274</v>
+        <v>25469</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42543</v>
+        <v>42407</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07113001467018878</v>
+        <v>0.07113001467018877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05439743174913372</v>
+        <v>0.05481847680908138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09156783243133078</v>
+        <v>0.09127533215458028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -8025,19 +8025,19 @@
         <v>54055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43257</v>
+        <v>43395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64355</v>
+        <v>65547</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06976543698027694</v>
+        <v>0.06976543698027693</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05582909074240941</v>
+        <v>0.05600756327127119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08305878048416833</v>
+        <v>0.08459802811639236</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>289191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>280682</v>
+        <v>280823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296342</v>
+        <v>295718</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9322784004930351</v>
+        <v>0.9322784004930353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9048471658328817</v>
+        <v>0.9053019595167738</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9553319463578849</v>
+        <v>0.9533194012324659</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>822</v>
@@ -8075,19 +8075,19 @@
         <v>431561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>422066</v>
+        <v>422202</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>439335</v>
+        <v>439140</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9288699853298112</v>
+        <v>0.9288699853298111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9084321675686695</v>
+        <v>0.9087246678454196</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9456025682508661</v>
+        <v>0.9451815231909186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1249</v>
@@ -8096,19 +8096,19 @@
         <v>720752</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>710452</v>
+        <v>709260</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>731550</v>
+        <v>731412</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9302345630197231</v>
+        <v>0.930234563019723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9169412195158317</v>
+        <v>0.9154019718836078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9441709092575905</v>
+        <v>0.9439924367287292</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>313239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08866702436893069</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>626</v>
@@ -8221,19 +8221,19 @@
         <v>480638</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1286177089042559</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>917</v>
@@ -8242,19 +8242,19 @@
         <v>793878</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1092034353490972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3219523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3181123</v>
+        <v>3180218</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3252090</v>
+        <v>3257358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9113329756310694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9004633671871414</v>
+        <v>0.9002071402598691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9205517372804936</v>
+        <v>0.922042969217476</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4741</v>
@@ -8292,19 +8292,19 @@
         <v>3256316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3218375</v>
+        <v>3220097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3291934</v>
+        <v>3294431</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8713822910957443</v>
+        <v>0.8713822910957441</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8612295106497201</v>
+        <v>0.8616903419670223</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8809138060212111</v>
+        <v>0.8815818522910672</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7826</v>
@@ -8313,19 +8313,19 @@
         <v>6475838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6423126</v>
+        <v>6422364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6526895</v>
+        <v>6527370</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8907965646509027</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.883545690183752</v>
+        <v>0.8834408984136062</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8978197439741779</v>
+        <v>0.8978851390345064</v>
       </c>
     </row>
     <row r="27">
